--- a/biology/Botanique/Eucalyptus_luehmanniana/Eucalyptus_luehmanniana.xlsx
+++ b/biology/Botanique/Eucalyptus_luehmanniana/Eucalyptus_luehmanniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus luehmanniana est une espèce d'eucalyptus considérée comme vulnérable poussant dans la région de Sydney en Australie. Il pousse dans les zones de fortes pluies sur des sols pauvres et rocheux.
 C'est un mallee, ne dépassant pas six mètres de hauteur. Ses feuilles mesurent 14 à 18 cm de long sur 2 à 4 de large. Les fleurs sont blanches.
